--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H2">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I2">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J2">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>511.3181224141426</v>
+        <v>681.5822296349211</v>
       </c>
       <c r="R2">
-        <v>511.3181224141426</v>
+        <v>6134.240066714289</v>
       </c>
       <c r="S2">
-        <v>0.04542873393424127</v>
+        <v>0.05079777737879577</v>
       </c>
       <c r="T2">
-        <v>0.04542873393424127</v>
+        <v>0.05079777737879577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H3">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I3">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J3">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>2574.063877086613</v>
+        <v>2774.322127772982</v>
       </c>
       <c r="R3">
-        <v>2574.063877086613</v>
+        <v>24968.89914995683</v>
       </c>
       <c r="S3">
-        <v>0.2286961049802113</v>
+        <v>0.2067680049392801</v>
       </c>
       <c r="T3">
-        <v>0.2286961049802113</v>
+        <v>0.2067680049392801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H4">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I4">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J4">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>2626.886933614259</v>
+        <v>3228.950079825657</v>
       </c>
       <c r="R4">
-        <v>2626.886933614259</v>
+        <v>29060.55071843091</v>
       </c>
       <c r="S4">
-        <v>0.2333892392060391</v>
+        <v>0.240651061883003</v>
       </c>
       <c r="T4">
-        <v>0.2333892392060391</v>
+        <v>0.2406510618830029</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H5">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I5">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J5">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>775.3324540120948</v>
+        <v>910.9996906556258</v>
       </c>
       <c r="R5">
-        <v>775.3324540120948</v>
+        <v>8198.997215900632</v>
       </c>
       <c r="S5">
-        <v>0.06888543593487073</v>
+        <v>0.06789607690162891</v>
       </c>
       <c r="T5">
-        <v>0.06888543593487073</v>
+        <v>0.0678960769016289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H6">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I6">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J6">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>184.1317396609882</v>
+        <v>229.66876799573</v>
       </c>
       <c r="R6">
-        <v>184.1317396609882</v>
+        <v>2067.01891196157</v>
       </c>
       <c r="S6">
-        <v>0.01635942761115922</v>
+        <v>0.01711702923029325</v>
       </c>
       <c r="T6">
-        <v>0.01635942761115922</v>
+        <v>0.01711702923029325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H7">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I7">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J7">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>926.9510289380596</v>
+        <v>934.8470623276166</v>
       </c>
       <c r="R7">
-        <v>926.9510289380596</v>
+        <v>8413.62356094855</v>
       </c>
       <c r="S7">
-        <v>0.08235618848179821</v>
+        <v>0.06967340240190208</v>
       </c>
       <c r="T7">
-        <v>0.08235618848179821</v>
+        <v>0.06967340240190208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H8">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I8">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J8">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>945.9732400944409</v>
+        <v>1088.040377975367</v>
       </c>
       <c r="R8">
-        <v>945.9732400944409</v>
+        <v>9792.363401778301</v>
       </c>
       <c r="S8">
-        <v>0.08404624195650037</v>
+        <v>0.08109077745342334</v>
       </c>
       <c r="T8">
-        <v>0.08404624195650037</v>
+        <v>0.08109077745342336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H9">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I9">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J9">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>279.2064417721515</v>
+        <v>306.9742248260178</v>
       </c>
       <c r="R9">
-        <v>279.2064417721515</v>
+        <v>2762.76802343416</v>
       </c>
       <c r="S9">
-        <v>0.02480646509477692</v>
+        <v>0.02287854297799537</v>
       </c>
       <c r="T9">
-        <v>0.02480646509477692</v>
+        <v>0.02287854297799537</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H10">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I10">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J10">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>167.7987201344001</v>
+        <v>246.501484224734</v>
       </c>
       <c r="R10">
-        <v>167.7987201344001</v>
+        <v>2218.513358022606</v>
       </c>
       <c r="S10">
-        <v>0.01490829891868709</v>
+        <v>0.01837155808169741</v>
       </c>
       <c r="T10">
-        <v>0.01490829891868709</v>
+        <v>0.01837155808169742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H11">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I11">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J11">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>844.7277833221165</v>
+        <v>1003.363192992677</v>
       </c>
       <c r="R11">
-        <v>844.7277833221165</v>
+        <v>9030.268736934091</v>
       </c>
       <c r="S11">
-        <v>0.07505095562468653</v>
+        <v>0.07477985471396494</v>
       </c>
       <c r="T11">
-        <v>0.07505095562468653</v>
+        <v>0.07477985471396495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H12">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I12">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J12">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>862.0626691600705</v>
+        <v>1167.784241662127</v>
       </c>
       <c r="R12">
-        <v>862.0626691600705</v>
+        <v>10510.05817495914</v>
       </c>
       <c r="S12">
-        <v>0.07659109645285576</v>
+        <v>0.08703402371008534</v>
       </c>
       <c r="T12">
-        <v>0.07659109645285576</v>
+        <v>0.08703402371008534</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H13">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I13">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J13">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N13">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q13">
-        <v>254.4400203294939</v>
+        <v>329.4727563469031</v>
       </c>
       <c r="R13">
-        <v>254.4400203294939</v>
+        <v>2965.254807122129</v>
       </c>
       <c r="S13">
-        <v>0.02260605967024456</v>
+        <v>0.02455534050271945</v>
       </c>
       <c r="T13">
-        <v>0.02260605967024456</v>
+        <v>0.02455534050271945</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H14">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I14">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J14">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N14">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q14">
-        <v>23.84120524825499</v>
+        <v>46.216203945489</v>
       </c>
       <c r="R14">
-        <v>23.84120524825499</v>
+        <v>415.945835509401</v>
       </c>
       <c r="S14">
-        <v>0.00211820336971623</v>
+        <v>0.003444456644025875</v>
       </c>
       <c r="T14">
-        <v>0.00211820336971623</v>
+        <v>0.003444456644025875</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H15">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I15">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J15">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N15">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q15">
-        <v>120.0207513201248</v>
+        <v>188.119102424835</v>
       </c>
       <c r="R15">
-        <v>120.0207513201248</v>
+        <v>1693.071921823515</v>
       </c>
       <c r="S15">
-        <v>0.01066340217429946</v>
+        <v>0.01402036595172704</v>
       </c>
       <c r="T15">
-        <v>0.01066340217429946</v>
+        <v>0.01402036595172704</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H16">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I16">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J16">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N16">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q16">
-        <v>122.4837294101049</v>
+        <v>218.94616515891</v>
       </c>
       <c r="R16">
-        <v>122.4837294101049</v>
+        <v>1970.51548643019</v>
       </c>
       <c r="S16">
-        <v>0.01088222871580222</v>
+        <v>0.01631788223357976</v>
       </c>
       <c r="T16">
-        <v>0.01088222871580222</v>
+        <v>0.01631788223357977</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H17">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I17">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J17">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N17">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q17">
-        <v>36.15138865890567</v>
+        <v>61.77236680623201</v>
       </c>
       <c r="R17">
-        <v>36.15138865890567</v>
+        <v>555.9513012560881</v>
       </c>
       <c r="S17">
-        <v>0.003211917874110829</v>
+        <v>0.004603844995878272</v>
       </c>
       <c r="T17">
-        <v>0.003211917874110829</v>
+        <v>0.004603844995878273</v>
       </c>
     </row>
   </sheetData>
